--- a/110_Analyses_Données/Ex_9_10_11.xlsx
+++ b/110_Analyses_Données/Ex_9_10_11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\110_Analyses_Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B5EF1-B830-445F-9EE5-D81DD45C6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E71E153-11D8-4A9C-B809-A3E55271D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="61" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -755,17 +755,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,7 +808,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Base 2.xlsx]Données!PivotTable37</c:name>
+    <c:name>[Ex_9_10_11.xlsx]Données!PivotTable37</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1414,7 +1414,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Base 2.xlsx]Données!PivotTable38</c:name>
+    <c:name>[Ex_9_10_11.xlsx]Données!PivotTable38</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2306,7 +2306,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Base 2.xlsx]Données!PivotTable35</c:name>
+    <c:name>[Ex_9_10_11.xlsx]Données!PivotTable35</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -6018,7 +6018,244 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B02A5A1-537A-4EBD-9DD0-5E304283F068}" name="PivotTable38" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E43269-1977-445C-ABC1-6F345DEA563D}" name="PivotTable37" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="M23:P28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Cartedefidélité" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62DE51CC-1D2D-4EA8-ACD7-6B02E30F9B40}" name="PivotTable35" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="M3:P12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Retourduproduit" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B02A5A1-537A-4EBD-9DD0-5E304283F068}" name="PivotTable38" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="M40:Q49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -6140,243 +6377,6 @@
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E43269-1977-445C-ABC1-6F345DEA563D}" name="PivotTable37" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="M23:P28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Cartedefidélité" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62DE51CC-1D2D-4EA8-ACD7-6B02E30F9B40}" name="PivotTable35" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="M3:P12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="7"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Retourduproduit" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6680,8 +6680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6833,7 +6833,7 @@
       <c r="N3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6886,19 +6886,19 @@
       <c r="P4" t="s">
         <v>205</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" s="8" t="s">
+      <c r="R4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6942,32 +6942,32 @@
       <c r="M5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5">
         <v>9</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5">
         <v>17</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","bricolage")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","non")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>8.8777777777777782</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","bricolage")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","oui")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>8.1222222222222218</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="7">
         <f>_xlfn.CHISQ.TEST(N5:O11,R5:S11)</f>
         <v>0.15017596616856607</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="7">
         <f>(ROWS(M5:M11)-1)*(COLUMNS(N4:O4)-1)</f>
         <v>6</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="7">
         <f>CHIINV(T5,U5)</f>
         <v>9.4425548546979403</v>
       </c>
@@ -7012,23 +7012,26 @@
       <c r="M6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","décoration")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","non")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>5.2222222222222223</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","décoration")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","oui")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>4.7777777777777777</v>
       </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7070,23 +7073,26 @@
       <c r="M7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7">
         <v>16</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","esthétique")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","non")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>8.3555555555555561</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","esthétique")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","oui")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>7.6444444444444448</v>
       </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7128,23 +7134,26 @@
       <c r="M8" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8">
         <v>10</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","jardin")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","non")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>5.2222222222222223</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","jardin")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","oui")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>4.7777777777777777</v>
       </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -7186,23 +7195,26 @@
       <c r="M9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9">
         <v>8</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9">
         <v>8</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9">
         <v>16</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","meubles")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","non")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>8.3555555555555561</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","meubles")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","oui")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>7.6444444444444448</v>
       </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7244,23 +7256,26 @@
       <c r="M10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10">
         <v>9</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10">
         <v>14</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","sport")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","non")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>7.3111111111111109</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","sport")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","oui")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>6.6888888888888891</v>
       </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -7302,23 +7317,26 @@
       <c r="M11" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11">
         <v>7</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11">
         <v>7</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","téléphonie")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","non")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>3.6555555555555554</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="7">
         <f>GETPIVOTDATA("Retourduproduit",$M$3,"Rayon","téléphonie")*GETPIVOTDATA("Retourduproduit",$M$3,"Retourduproduit","oui")/GETPIVOTDATA("Retourduproduit",$M$3)</f>
         <v>3.3444444444444446</v>
       </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7360,13 +7378,13 @@
       <c r="M12" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12">
         <v>47</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12">
         <v>43</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12">
         <v>90</v>
       </c>
     </row>
@@ -7445,12 +7463,12 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -7489,10 +7507,10 @@
       <c r="L15">
         <v>7</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -7531,10 +7549,10 @@
       <c r="L16">
         <v>2</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -7573,10 +7591,10 @@
       <c r="L17">
         <v>5</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -7615,10 +7633,10 @@
       <c r="L18">
         <v>2</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -7818,7 +7836,7 @@
       <c r="N23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7871,19 +7889,19 @@
       <c r="P24" t="s">
         <v>205</v>
       </c>
-      <c r="R24" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="T24" s="8" t="s">
+      <c r="R24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T24" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="U24" s="8" t="s">
+      <c r="U24" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="V24" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -7927,32 +7945,32 @@
       <c r="M25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25">
         <v>10</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25">
         <v>27</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25">
         <v>37</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="7">
         <f>GETPIVOTDATA("Cartedefidélité",$M$23,"Modedepaiement","cartedecrédit")*GETPIVOTDATA("Cartedefidélité",$M$23,"Cartedefidélité","non")/GETPIVOTDATA("Cartedefidélité",$M$23)</f>
         <v>16.444444444444443</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="7">
         <f>GETPIVOTDATA("Cartedefidélité",$M$23,"Modedepaiement","cartedecrédit")*GETPIVOTDATA("Cartedefidélité",$M$23,"Cartedefidélité","oui")/GETPIVOTDATA("Cartedefidélité",$M$23)</f>
         <v>20.555555555555557</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="7">
         <f>_xlfn.CHISQ.TEST(N25:O27,R25:S27)</f>
         <v>1.9480182965009175E-2</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="7">
         <f>(ROWS(M25:M27)-1)*(COLUMNS(N24:O24)-1)</f>
         <v>2</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="7">
         <f>CHIINV(T25,U25)</f>
         <v>7.876715176715174</v>
       </c>
@@ -7997,23 +8015,26 @@
       <c r="M26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26">
         <v>16</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26">
         <v>11</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26">
         <v>27</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="7">
         <f>GETPIVOTDATA("Cartedefidélité",$M$23,"Modedepaiement","chèque")*GETPIVOTDATA("Cartedefidélité",$M$23,"Cartedefidélité","non")/GETPIVOTDATA("Cartedefidélité",$M$23)</f>
         <v>12</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="7">
         <f>GETPIVOTDATA("Cartedefidélité",$M$23,"Modedepaiement","chèque")*GETPIVOTDATA("Cartedefidélité",$M$23,"Cartedefidélité","oui")/GETPIVOTDATA("Cartedefidélité",$M$23)</f>
         <v>15</v>
       </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8055,23 +8076,26 @@
       <c r="M27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27">
         <v>14</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27">
         <v>12</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27">
         <v>26</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="7">
         <f>GETPIVOTDATA("Cartedefidélité",$M$23,"Modedepaiement","espèces")*GETPIVOTDATA("Cartedefidélité",$M$23,"Cartedefidélité","non")/GETPIVOTDATA("Cartedefidélité",$M$23)</f>
         <v>11.555555555555555</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="7">
         <f>GETPIVOTDATA("Cartedefidélité",$M$23,"Modedepaiement","espèces")*GETPIVOTDATA("Cartedefidélité",$M$23,"Cartedefidélité","oui")/GETPIVOTDATA("Cartedefidélité",$M$23)</f>
         <v>14.444444444444445</v>
       </c>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -8113,13 +8137,13 @@
       <c r="M28" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28">
         <v>40</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28">
         <v>50</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28">
         <v>90</v>
       </c>
     </row>
@@ -8198,12 +8222,12 @@
       <c r="L30">
         <v>7</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -8242,10 +8266,10 @@
       <c r="L31">
         <v>5</v>
       </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -8284,10 +8308,10 @@
       <c r="L32">
         <v>2</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8326,10 +8350,10 @@
       <c r="L33">
         <v>7</v>
       </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -8368,10 +8392,10 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -8662,22 +8686,22 @@
       <c r="Q41" t="s">
         <v>205</v>
       </c>
-      <c r="R41" s="8" t="s">
+      <c r="R41" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="8" t="s">
+      <c r="S41" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="T41" s="8" t="s">
+      <c r="T41" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="U41" s="8" t="s">
+      <c r="U41" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="V41" s="8" t="s">
+      <c r="V41" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="W41" s="9" t="s">
+      <c r="W41" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8721,39 +8745,39 @@
       <c r="M42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42">
         <v>8</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42">
         <v>6</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42">
         <v>17</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","bricolage")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","cartedecrédit")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>6.9888888888888889</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","bricolage")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","chèque")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","bricolage")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","espèces")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.9111111111111114</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="7">
         <f>_xlfn.CHISQ.TEST(N42:P48,R42:T48)</f>
         <v>0.21858332018947718</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="7">
         <f>(ROWS(M42:M48)-1)*(COLUMNS(N41:P41)-1)</f>
         <v>12</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="7">
         <f>CHIINV(U42,V42)</f>
         <v>15.433455554779083</v>
       </c>
@@ -8798,30 +8822,33 @@
       <c r="M43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43">
         <v>6</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43">
         <v>2</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43">
         <v>2</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q43">
         <v>10</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","décoration")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","cartedecrédit")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.1111111111111107</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","décoration")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","chèque")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>3</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","décoration")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","espèces")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>2.8888888888888888</v>
       </c>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8863,30 +8890,33 @@
       <c r="M44" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44">
         <v>6</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44">
         <v>5</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44">
         <v>5</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44">
         <v>16</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","esthétique")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","cartedecrédit")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>6.5777777777777775</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","esthétique")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","chèque")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.8</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","esthétique")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","espèces")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.6222222222222218</v>
       </c>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8928,30 +8958,33 @@
       <c r="M45" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45">
         <v>0</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45">
         <v>5</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45">
         <v>5</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45">
         <v>10</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","jardin")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","cartedecrédit")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.1111111111111107</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","jardin")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","chèque")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>3</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","jardin")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","espèces")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>2.8888888888888888</v>
       </c>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8993,30 +9026,33 @@
       <c r="M46" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46">
         <v>5</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46">
         <v>7</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46">
         <v>4</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46">
         <v>16</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","meubles")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","cartedecrédit")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>6.5777777777777775</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","meubles")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","chèque")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.8</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","meubles")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","espèces")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.6222222222222218</v>
       </c>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -9058,30 +9094,33 @@
       <c r="M47" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47">
         <v>9</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47">
         <v>2</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P47">
         <v>3</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47">
         <v>14</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","sport")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","cartedecrédit")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>5.7555555555555555</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","sport")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","chèque")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.2</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","sport")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","espèces")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>4.0444444444444443</v>
       </c>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -9123,30 +9162,33 @@
       <c r="M48" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48">
         <v>3</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48">
         <v>3</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48">
         <v>1</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="Q48">
         <v>7</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","téléphonie")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","cartedecrédit")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>2.8777777777777778</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","téléphonie")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","chèque")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>2.1</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="7">
         <f>GETPIVOTDATA("Modedepaiement",$M$40,"Rayon","téléphonie")*GETPIVOTDATA("Modedepaiement",$M$40,"Modedepaiement","espèces")/GETPIVOTDATA("Modedepaiement",$M$40)</f>
         <v>2.0222222222222221</v>
       </c>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -9188,16 +9230,16 @@
       <c r="M49" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49">
         <v>37</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49">
         <v>27</v>
       </c>
-      <c r="P49" s="5">
+      <c r="P49">
         <v>26</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="Q49">
         <v>90</v>
       </c>
     </row>
@@ -9276,13 +9318,13 @@
       <c r="L51">
         <v>4</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -9321,11 +9363,11 @@
       <c r="L52">
         <v>5</v>
       </c>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -9364,11 +9406,11 @@
       <c r="L53">
         <v>1</v>
       </c>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -9407,11 +9449,11 @@
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -9450,11 +9492,11 @@
       <c r="L55">
         <v>5</v>
       </c>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
